--- a/supp_data/tcga_positive_sig_sig_survivals.xlsx
+++ b/supp_data/tcga_positive_sig_sig_survivals.xlsx
@@ -7,17 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ColoRect_AdenoCa__MMR+SBS5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Skin_Melanoma__Technical+SBS38" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Skin_Melanoma__Ageing+UV" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ColoRect_AdenoCa__CL SBS5+MMR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Skin_Melanoma__SBS38+Technical" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Skin_Melanoma__Technical+SBS38" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Skin_Melanoma__CL SBS1+UV" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="766">
-  <si>
-    <t xml:space="preserve">Head_SCC__Ageing+APOBEC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="675">
+  <si>
+    <t xml:space="preserve">Head_SCC__CL SBS1+APOBEC</t>
   </si>
   <si>
     <t xml:space="preserve">Model 1</t>
@@ -50,13 +51,13 @@
     <t xml:space="preserve">log(total_muts + 1)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ageing</t>
-  </si>
-  <si>
     <t xml:space="preserve">APOBEC</t>
   </si>
   <si>
-    <t xml:space="preserve">Ageing*APOBEC</t>
+    <t xml:space="preserve">CL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*CL SBS1</t>
   </si>
   <si>
     <t xml:space="preserve">Model log-likelihoods</t>
@@ -161,13 +162,13 @@
     <t xml:space="preserve">Surv(survival_time, vital_status) ~ age_at_diagnosis + log(total_muts + 1) + status</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing</t>
-  </si>
-  <si>
     <t xml:space="preserve">statusAPOBEC</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+APOBEC</t>
+    <t xml:space="preserve">statusCL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+CL SBS1</t>
   </si>
   <si>
     <t xml:space="preserve">PLR test for models 5 and 3	nested: FALSE</t>
@@ -230,13 +231,13 @@
     <t xml:space="preserve">Fine: p = 0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">    z = -0.206,   p = 0.582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.206,   p = 0.4183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.206,   two-sided p = 0.8366</t>
+    <t xml:space="preserve">    z = 1.066,   p = 0.143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.066,   p = 0.8568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.066,   two-sided p = 0.2864</t>
   </si>
   <si>
     <t xml:space="preserve">Model 8</t>
@@ -260,19 +261,652 @@
     <t xml:space="preserve">Best model is Model 3</t>
   </si>
   <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.189386310929812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_cancer__Ageing+MMR</t>
+    <t xml:space="preserve">p-value of interaction in this model: 0.189386310929821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*CL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-349.0947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.8114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-346.0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.419,   p = 0.00812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.419,   p = 0.00371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.9896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.356,   p = 0.573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.356,   p = 0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-347.5609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.143,   p = 0.00178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 11.143,   p = 0.000844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+CL SBS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.360,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.360,   p = 0.000389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.360,   two-sided p = 0.0007781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.026,   p = 0.848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.026,   p = 0.1525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.026,   two-sided p = 0.305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.000,   p = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.000,   two-sided p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.856,   p = 0.804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.856,   p = 0.1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.856,   two-sided p = 0.3923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.92749433758252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-480.1646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-476.1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.8189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.415,   p = 0.0661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.415,   p = 0.0646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.9710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.719,   p = 0.0716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 3.719,   p = 0.0538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-479.9412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 1	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.660,   p = 0.0294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.660,   p = 0.0217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 5 and 1	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.532,   p = 0.937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.532,   p = 0.06282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.532,   two-sided p = 0.1256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 6 and 1	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.305,   p = 0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.305,   p = 0.6199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.305,   two-sided p = 0.7602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 7 and 1	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.225,   p = 0.411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.225,   p = 0.5888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.225,   two-sided p = 0.8223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 8 and 1	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.267,   p = 0.395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.267,   p = 0.6051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.267,   two-sided p = 0.7897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.996279051851781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovary_AdenoCa__CL SBS5+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67.83828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-67.50877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-257.7106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-245.4963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-250.7773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.562,   p = 0.00192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.562,   p = 0.00115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-250.8810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.769,   p = 0.00132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.769,   p = 0.00103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-254.2374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 17.482,   p = 0.000336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 17.482,   p = 0.00016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.496,   p = 0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.496,   p = 0.3101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.496,   two-sided p = 0.6202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.138,   p = 0.872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.138,   p = 0.1276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.138,   two-sided p = 0.2552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.932,   p = 0.824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.932,   p = 0.1757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.932,   two-sided p = 0.3514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.100,   p = 0.864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.100,   p = 0.1357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.100,   two-sided p = 0.2714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.722347950069251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__SBS40+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-80.87591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.69640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.72314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.054,   p = 0.828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.054,   p = 0.817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.00517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.835,   p = 0.798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.835,   p = 0.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.835,   two-sided p = 0.4038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.01323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.583,   p = 0.121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.583,   p = 0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 5 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.966,   p = 0.833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.966,   p = 0.167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.966,   two-sided p = 0.334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 6 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.099,   p = 0.539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.099,   p = 0.4606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.099,   two-sided p = 0.9213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 7 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -12.172,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -12.172,   p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -12.172,   two-sided p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 8 and 4	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.653,   p = 0.257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.653,   p = 0.743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.653,   two-sided p = 0.514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.231300238230555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCa__SBS17+APOBEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOBEC*SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.3668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-198.6193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-203.8529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.467,   p = 0.00495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.467,   p = 0.00122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-198.6997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.161,   p = 0.669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.161,   p = 0.688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-203.8597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.320,   p = 0.00461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.320,   p = 0.00132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusAPOBEC+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -4.926,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -4.926,   p = 4.199e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -4.926,   two-sided p = 8.398e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.421,   p = 0.922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.421,   p = 0.0776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.421,   two-sided p = 0.1552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.675,   p = 0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.675,   p = 0.2499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.675,   two-sided p = 0.4999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.890,   p = 0.813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.890,   p = 0.1868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.890,   two-sided p = 0.3736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.279563976063616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCa__SBS17+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR*SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-199.9520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-204.3313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.759,   p = 0.00531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.759,   p = 0.00308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-200.0784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.253,   p = 0.588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.253,   p = 0.615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-204.3319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.507,   p = 0.00507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 8.507,   p = 0.00354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusHR+SBS17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.871,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.871,   p = 5.419e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -3.871,   two-sided p = 0.0001084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.408,   p = 0.921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.408,   p = 0.0795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.408,   two-sided p = 0.159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.054,   p = 0.146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.054,   p = 0.854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 1.054,   two-sided p = 0.292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.767,   p = 0.779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.767,   p = 0.2214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.767,   two-sided p = 0.4428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.996070313791654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_cancer__CL SBS1+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">MMR</t>
   </si>
   <si>
-    <t xml:space="preserve">Ageing*MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">CL SBS1*MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-64.33322</t>
@@ -281,25 +915,13 @@
     <t xml:space="preserve">-60.18212</t>
   </si>
   <si>
-    <t xml:space="preserve">Best model is Model 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCa__Ageing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.3668</t>
+    <t xml:space="preserve">ColoRect_AdenoCa__CL SBS1+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-212.2372</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomach_AdenoCa__Ageing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-257.7106</t>
+    <t xml:space="preserve">Stomach_AdenoCa__CL SBS1+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-255.3555</t>
@@ -308,10 +930,7 @@
     <t xml:space="preserve">-256.5634</t>
   </si>
   <si>
-    <t xml:space="preserve">PLR test for models 4 and 2	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.564</t>
+    <t xml:space="preserve">Fine: p = 0.31</t>
   </si>
   <si>
     <t xml:space="preserve">    LR = 2.416,   p = 0.163</t>
@@ -323,13 +942,10 @@
     <t xml:space="preserve">statusMMR</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 6 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.581</t>
+    <t xml:space="preserve">statusCL SBS1+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.621</t>
   </si>
   <si>
     <t xml:space="preserve">    z = -0.432,   p = 0.667</t>
@@ -341,12 +957,6 @@
     <t xml:space="preserve">    z = -0.432,   two-sided p = 0.666</t>
   </si>
   <si>
-    <t xml:space="preserve">PLR test for models 8 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.93</t>
-  </si>
-  <si>
     <t xml:space="preserve">    z = -0.146,   p = 0.558</t>
   </si>
   <si>
@@ -356,1558 +966,781 @@
     <t xml:space="preserve">    z = -0.146,   two-sided p = 0.8843</t>
   </si>
   <si>
-    <t xml:space="preserve">Best model is Model 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">p-value of interaction in this model: 0.999974148455224</t>
   </si>
   <si>
-    <t xml:space="preserve">Uterus_AdenoCa__Ageing+MMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-80.87591</t>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS1+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-77.62177</t>
   </si>
   <si>
-    <t xml:space="preserve">Breast_cancer__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60.51760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-63.30758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.598,   p = 0.0301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.598,   p = 0.0182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60.82315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.610,   p = 0.388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.610,   p = 0.434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-63.77402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.920,   p = 0.0265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 5.920,   p = 0.0151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAgeing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.687,   p = 0.954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.687,   p = 0.04583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.687,   two-sided p = 0.09167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.839,   p = 0.799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.839,   p = 0.2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.839,   two-sided p = 0.4017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 1.38e-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.824,   p = 0.205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.824,   p = 0.795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.824,   two-sided p = 0.4101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.529,   p = 0.702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.529,   p = 0.2983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.529,   two-sided p = 0.5967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.999996522768335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cervix_CA__Ageing+SBS5</t>
+    <t xml:space="preserve">Breast_cancer__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-60.46731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cervix_CA__CL SBS5+MMR</t>
   </si>
   <si>
     <t xml:space="preserve">-181.0436</t>
   </si>
   <si>
-    <t xml:space="preserve">-176.5750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCa__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-211.5620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso_AdenoCa__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-202.1655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-200.8137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+SBS5</t>
+    <t xml:space="preserve">-176.4620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ColoRect_AdenoCa__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-205.6991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-212.0859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.774,   p = 0.000805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.774,   p = 0.000352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-206.0909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.784,   p = 0.389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.784,   p = 0.376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-212.4886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.795,   p = 0.000671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.795,   p = 0.000347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.770,   p = 0.962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.770,   p = 0.03837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.770,   two-sided p = 0.07674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.552,   p = 0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.552,   p = 0.06028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.552,   two-sided p = 0.1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.181,   p = 0.881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.181,   p = 0.1188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.181,   two-sided p = 0.2375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.000137946870605393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS5+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-75.97020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-75.97632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.012,   p = 0.895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.012,   p = 0.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.44900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.345,   p = 0.911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.345,   p = 0.08935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.345,   two-sided p = 0.1787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.68086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.409,   p = 0.0067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 7.409,   p = 0.00649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 5 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -11.237,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -11.237,   p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -11.237,   two-sided p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 6 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.688,   p = 0.754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.688,   p = 0.2458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.688,   two-sided p = 0.4916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 7 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 8 and 2	nested: FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.872,   p = 0.808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.872,   p = 0.1917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.872,   two-sided p = 0.3834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.99790080099607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__Technical+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR*Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-249.5865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-254.7208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.269,   p = 0.000873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.269,   p = 0.00135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-251.8416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.510,   p = 0.0531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.510,   p = 0.0337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-255.7459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.319,   p = 0.00431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 12.319,   p = 0.00211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusTechnical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusMMR+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.948,   p = 0.171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.948,   p = 0.8285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.948,   two-sided p = 0.343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.044,   p = 0.852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.044,   p = 0.1482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.044,   two-sided p = 0.2965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.081,   p = 0.532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.081,   p = 0.4678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.081,   two-sided p = 0.9356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.574,   p = 0.717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.574,   p = 0.283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.574,   two-sided p = 0.5659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.626514286400945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS_GBM__PolE+MMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR*PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-171.6108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-163.6511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_cancer__Technical+SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS29*Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-59.92793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_SCC__CL SBS5+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-476.0372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.3568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.639,   p = 0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.639,   p = 0.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-477.9186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.194,   p = 0.577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.194,   p = 0.4233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.194,   two-sided p = 0.8465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-479.7405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.767,   p = 0.0477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 4.767,   p = 0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.590,   p = 0.722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.590,   p = 0.2776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.590,   two-sided p = 0.5552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.534,   p = 0.938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.534,   p = 0.06248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.534,   two-sided p = 0.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.024,   p = 0.509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.024,   p = 0.4905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.024,   two-sided p = 0.981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.996369006178456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__MMR+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast_cancer__SBS29+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__SBS40+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS40*Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.2258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-345.9290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.406,   p = 0.00255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 9.406,   p = 0.00216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.2509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.050,   p = 0.874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.050,   p = 0.823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-346.4676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.433,   p = 0.00138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 10.433,   p = 0.00124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS40+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -9.788,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -9.788,   p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -9.788,   two-sided p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.00385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.260,   p = 0.896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.260,   p = 0.1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.260,   two-sided p = 0.2077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.275,   p = 0.392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.275,   p = 0.6083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.275,   two-sided p = 0.7833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.804,   p = 0.789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.804,   p = 0.2107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.804,   two-sided p = 0.4214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.954644808327954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin_Melanoma__SBS38+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS38*Technical</t>
   </si>
   <si>
     <t xml:space="preserve">-529.2339</t>
   </si>
   <si>
-    <t xml:space="preserve">-517.5606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-525.0226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 14.924,   p = 0.000196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 14.924,   p = 0.000112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-517.5905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.060,   p = 0.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.060,   p = 0.807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-525.1392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.097,   p = 0.000215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.097,   p = 0.000102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -9.312,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -9.312,   p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -9.312,   two-sided p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.832,   p = 0.966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.832,   p = 0.0335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.832,   two-sided p = 0.067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.603,   p = 0.273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.603,   p = 0.7266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.603,   two-sided p = 0.5468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.253,   p = 0.895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.253,   p = 0.1052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.253,   two-sided p = 0.2104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.887897087058955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-251.0296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__Ageing+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.48735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCa__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-349.0947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.8114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-346.0207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.419,   p = 0.00812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.419,   p = 0.00371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.9896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.356,   p = 0.573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.356,   p = 0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-347.5609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.143,   p = 0.00178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 11.143,   p = 0.000844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.360,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.360,   p = 0.000389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.360,   two-sided p = 0.0007781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.026,   p = 0.848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.026,   p = 0.1525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.026,   two-sided p = 0.305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.000,   p = 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.000,   two-sided p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.856,   p = 0.804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.856,   p = 0.1961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.856,   two-sided p = 0.3923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.92749433758252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-480.1646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-476.1114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.8189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.415,   p = 0.0661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.415,   p = 0.0646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.9710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.719,   p = 0.0716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 3.719,   p = 0.0538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-479.9412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 4 and 1	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.660,   p = 0.0294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.660,   p = 0.0217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 5 and 1	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.532,   p = 0.937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.532,   p = 0.06282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.532,   two-sided p = 0.1256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 6 and 1	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.305,   p = 0.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.305,   p = 0.6199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.305,   two-sided p = 0.7602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 7 and 1	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.225,   p = 0.411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.225,   p = 0.5888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.225,   two-sided p = 0.8223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 8 and 1	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.267,   p = 0.395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.267,   p = 0.6051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.267,   two-sided p = 0.7897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.996279051851781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovary_AdenoCa__APOBEC+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-67.83828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-67.50877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_cancer__MMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60.46731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cervix_CA__MMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-176.4620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ColoRect_AdenoCa__MMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-205.6991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-212.0859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.774,   p = 0.000805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.774,   p = 0.000352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-206.0909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.784,   p = 0.389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.784,   p = 0.376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-212.4886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.795,   p = 0.000671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.795,   p = 0.000347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.770,   p = 0.962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.770,   p = 0.03837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.770,   two-sided p = 0.07674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.552,   p = 0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.552,   p = 0.06028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.552,   two-sided p = 0.1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.887,   p = 0.187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.887,   p = 0.8125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.887,   two-sided p = 0.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.181,   p = 0.881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.181,   p = 0.1188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.181,   two-sided p = 0.2375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.000137946870605394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__MMR+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75.97020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75.97632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.012,   p = 0.895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.012,   p = 0.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.44900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 3 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.345,   p = 0.911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.345,   p = 0.08935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.345,   two-sided p = 0.1787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.68086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.409,   p = 0.0067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 7.409,   p = 0.00649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 5 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -11.237,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -11.237,   p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -11.237,   two-sided p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 6 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.344,   p = 0.635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.344,   p = 0.3653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.344,   two-sided p = 0.7306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 7 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 8 and 2	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.872,   p = 0.808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.872,   p = 0.1917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.872,   two-sided p = 0.3834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.997900801134325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__MMR+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR*Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-249.5865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-254.7208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.269,   p = 0.000873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.269,   p = 0.00135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-251.8416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.510,   p = 0.0531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.510,   p = 0.0337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-255.7459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.319,   p = 0.00431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 12.319,   p = 0.00211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusTechnical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusMMR+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.948,   p = 0.171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.948,   p = 0.8285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.948,   two-sided p = 0.343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.044,   p = 0.852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.044,   p = 0.1482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.044,   two-sided p = 0.2965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.081,   p = 0.532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.081,   p = 0.4678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.081,   two-sided p = 0.9356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.574,   p = 0.717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.574,   p = 0.283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.574,   two-sided p = 0.5659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.626514286400945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breast_cancer__SBS29+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS29*Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-59.92793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_SCC__SBS5+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS5*Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-476.0372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.3568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.639,   p = 0.108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.639,   p = 0.104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-477.9186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   p = 0.577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   p = 0.4233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.194,   two-sided p = 0.8465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-479.7405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.767,   p = 0.0477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 4.767,   p = 0.029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS5+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.590,   p = 0.722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.590,   p = 0.2776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.590,   two-sided p = 0.5552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.534,   p = 0.938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.534,   p = 0.06248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.534,   two-sided p = 0.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.024,   p = 0.509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.024,   p = 0.4905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.024,   two-sided p = 0.981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.996369006178456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stomach_AdenoCa__SBS5+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-249.5919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-254.8693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.555,   p = 0.000858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.555,   p = 0.00116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-253.9942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.805,   p = 0.00445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.805,   p = 0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-257.1509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.118,   p = 0.000919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.118,   p = 0.000521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.237,   p = 0.594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.237,   p = 0.4063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.237,   two-sided p = 0.8127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.075,   p = 0.859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.075,   p = 0.1413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.075,   two-sided p = 0.2826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.793,   p = 0.786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.793,   p = 0.2139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.793,   two-sided p = 0.4277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.928,   p = 0.823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.928,   p = 0.1766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.928,   two-sided p = 0.3532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.835165454754743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__Ageing+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*PolE</t>
+    <t xml:space="preserve">-516.1883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-524.1256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.000129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.875,   p = 9.85e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.875,   p = 6.77e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-516.2536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.131,   p = 0.757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.131,   p = 0.718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-524.1348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.000202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.762,   p = 0.000125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 15.762,   p = 7.18e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusSBS38+Technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -5.946,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -5.946,   p = 1.372e-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -5.946,   two-sided p = 2.744e-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.842,   p = 0.967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.842,   p = 0.03274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.842,   two-sided p = 0.06548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 3.232,   p = 0.000615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 3.232,   p = 0.9994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 3.232,   two-sided p = 0.00123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLR test for models 8 and 7	nested: TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.000169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best model is Model 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.00519804386598325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS1+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*PolE</t>
   </si>
   <si>
     <t xml:space="preserve">-77.95328</t>
   </si>
   <si>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS5+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.46431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77.46582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.003,   p = 0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 0.003,   p = 0.956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-78.95177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.161,   p = 0.877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.161,   p = 0.1229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -1.161,   two-sided p = 0.2457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-78.96380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.996,   p = 0.0289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LR = 2.996,   p = 0.0835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusPolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statusCL SBS5+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -24.052,   p = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -24.052,   p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -24.052,   two-sided p = &lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = &lt;2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.131,   p = 0.448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.131,   p = 0.5523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = 0.131,   two-sided p = 0.8954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine: p = 0.0304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.042,   p = 0.517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.042,   p = 0.4834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    z = -0.042,   two-sided p = 0.9667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value of interaction in this model: 0.998234512998131</t>
+  </si>
+  <si>
     <t xml:space="preserve">CNS_GBM__MMR+PolE</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR*PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-171.6108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-163.6511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__SBS5+PolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PolE*SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.46431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.46582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.003,   p = 0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.003,   p = 0.956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78.95177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.161,   p = 0.877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.161,   p = 0.1229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.161,   two-sided p = 0.2457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78.96380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.996,   p = 0.0289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.996,   p = 0.0835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusPolE+SBS5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -24.052,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -24.052,   p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -24.052,   two-sided p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 1.82e-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.121,   p = 0.452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.121,   p = 0.548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.121,   two-sided p = 0.904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.042,   p = 0.517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.042,   p = 0.4834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.042,   two-sided p = 0.9667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.998234513011846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lung_AdenoCa__Ageing+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageing*SBS40</t>
+    <t xml:space="preserve">Uterus_AdenoCa__SBS28+PolE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PolE*SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-76.64558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach_AdenoCa__APOBEC+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uterus_AdenoCa__APOBEC+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lung_AdenoCa__CL SBS1+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS1*SBS40</t>
   </si>
   <si>
     <t xml:space="preserve">-341.0551</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomach_AdenoCa__APOBEC+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-245.4963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-250.7773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.562,   p = 0.00192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.562,   p = 0.00115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-250.8810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.769,   p = 0.00132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.769,   p = 0.00103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-254.2374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 17.482,   p = 0.000336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 17.482,   p = 0.00016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.496,   p = 0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.496,   p = 0.3101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.496,   two-sided p = 0.6202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.138,   p = 0.872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.138,   p = 0.1276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.138,   two-sided p = 0.2552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.932,   p = 0.824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.932,   p = 0.1757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.932,   two-sided p = 0.3514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.100,   p = 0.864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.100,   p = 0.1357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.100,   two-sided p = 0.2714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.722347950069251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uterus_AdenoCa__APOBEC+SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.69640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-77.72314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.054,   p = 0.828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.054,   p = 0.817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.00517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.835,   p = 0.798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.835,   p = 0.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.835,   two-sided p = 0.4038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-79.01323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.583,   p = 0.121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 2.583,   p = 0.108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 5 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.966,   p = 0.833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.966,   p = 0.167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.966,   two-sided p = 0.334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.099,   p = 0.539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.099,   p = 0.4606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.099,   two-sided p = 0.9213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 7 and 4	nested: FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -12.172,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -12.172,   p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -12.172,   two-sided p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.653,   p = 0.257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.653,   p = 0.743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.653,   two-sided p = 0.514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.231300238230555</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lung_AdenoCa__Technical+SBS40</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS40*Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.2258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-345.9290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.406,   p = 0.00255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 9.406,   p = 0.00216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.2509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.050,   p = 0.874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.050,   p = 0.823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-346.4676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.433,   p = 0.00138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.433,   p = 0.00124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS40+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -9.788,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -9.788,   p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -9.788,   two-sided p = &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.260,   p = 0.896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.260,   p = 0.1039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.260,   two-sided p = 0.2077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.275,   p = 0.392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.275,   p = 0.6083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 0.275,   two-sided p = 0.7833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.804,   p = 0.789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.804,   p = 0.2107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.804,   two-sided p = 0.4214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.954644808327954</t>
+    <t xml:space="preserve">Lung_AdenoCa__SBS17+SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBS17*SBS40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-341.3369</t>
   </si>
   <si>
     <t xml:space="preserve">ColoRect_AdenoCa__APOBEC+SBS17</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOBEC*SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-198.6193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-203.8529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.467,   p = 0.00495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.467,   p = 0.00122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-198.6997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.161,   p = 0.669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.161,   p = 0.688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-203.8597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.320,   p = 0.00461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 10.320,   p = 0.00132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusAPOBEC+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -4.926,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -4.926,   p = 4.199e-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -4.926,   two-sided p = 8.398e-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.421,   p = 0.922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.421,   p = 0.0776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.421,   two-sided p = 0.1552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.675,   p = 0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.675,   p = 0.2499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.675,   two-sided p = 0.4999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.890,   p = 0.813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.890,   p = 0.1868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.890,   two-sided p = 0.3736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.279563976063616</t>
-  </si>
-  <si>
     <t xml:space="preserve">ColoRect_AdenoCa__HR+SBS17</t>
   </si>
   <si>
-    <t xml:space="preserve">HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR*SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-199.9520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-204.3313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.759,   p = 0.00531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.759,   p = 0.00308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-200.0784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.253,   p = 0.588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.253,   p = 0.615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-204.3319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.507,   p = 0.00507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 8.507,   p = 0.00354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusHR+SBS17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.871,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.871,   p = 5.419e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -3.871,   two-sided p = 0.0001084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.0188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.408,   p = 0.921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.408,   p = 0.0795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.408,   two-sided p = 0.159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.054,   p = 0.146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.054,   p = 0.854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 1.054,   two-sided p = 0.292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.00862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.767,   p = 0.779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.767,   p = 0.2214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -0.767,   two-sided p = 0.4428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.996070313791654</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lung_AdenoCa__SBS40+SBS17</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS17*SBS40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-341.3369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head_SCC__SBS5+Tobacco</t>
+    <t xml:space="preserve">Head_SCC__CL SBS5+Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">Tobacco</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS5*Tobacco</t>
+    <t xml:space="preserve">CL SBS5*Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">-540.1036</t>
   </si>
   <si>
-    <t xml:space="preserve">Lung_AdenoCa__SBS5+Tobacco</t>
+    <t xml:space="preserve">Lung_AdenoCa__CL SBS5+Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">-341.7216</t>
@@ -1952,7 +1785,7 @@
     <t xml:space="preserve">statusTobacco</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS5+Tobacco</t>
+    <t xml:space="preserve">statusCL SBS5+Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">Fine: p = 0.599</t>
@@ -1979,9 +1812,6 @@
     <t xml:space="preserve">    z = -1.096,   two-sided p = 0.2731</t>
   </si>
   <si>
-    <t xml:space="preserve">Fine: p = &lt;2e-16</t>
-  </si>
-  <si>
     <t xml:space="preserve">    z = -0.394,   p = 0.653</t>
   </si>
   <si>
@@ -2006,7 +1836,7 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.99702021582916</t>
   </si>
   <si>
-    <t xml:space="preserve">Lung_SCC__SBS5+Tobacco</t>
+    <t xml:space="preserve">Lung_SCC__CL SBS5+Tobacco</t>
   </si>
   <si>
     <t xml:space="preserve">-476.6294</t>
@@ -2015,106 +1845,13 @@
     <t xml:space="preserve">Skin_Melanoma__Technical+SBS38</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS38*Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-516.1883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-524.1256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.875,   p = 9.85e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.875,   p = 6.77e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-516.2536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.131,   p = 0.757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 0.131,   p = 0.718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-524.1348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.762,   p = 0.000125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LR = 15.762,   p = 7.18e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statusSBS38+Technical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -5.946,   p = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -5.946,   p = 1.372e-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -5.946,   two-sided p = 2.744e-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.842,   p = 0.967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.842,   p = 0.03274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = -1.842,   two-sided p = 0.06548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 3.232,   p = 0.000615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 3.232,   p = 0.9994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    z = 3.232,   two-sided p = 0.00123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLR test for models 8 and 7	nested: TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine: p = 0.000169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best model is Model 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of interaction in this model: 0.00519804386598325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin_Melanoma__Ageing+UV</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS1+UV</t>
   </si>
   <si>
     <t xml:space="preserve">UV</t>
   </si>
   <si>
-    <t xml:space="preserve">Ageing*UV</t>
+    <t xml:space="preserve">CL SBS1*UV</t>
   </si>
   <si>
     <t xml:space="preserve">-515.9054</t>
@@ -2159,7 +1896,7 @@
     <t xml:space="preserve">statusUV</t>
   </si>
   <si>
-    <t xml:space="preserve">statusAgeing+UV</t>
+    <t xml:space="preserve">statusCL SBS1+UV</t>
   </si>
   <si>
     <t xml:space="preserve">    z = -3.607,   p = 1</t>
@@ -2204,10 +1941,10 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.00429642357260093</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin_Melanoma__SBS5+UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS5*UV</t>
+    <t xml:space="preserve">Skin_Melanoma__CL SBS5+UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*UV</t>
   </si>
   <si>
     <t xml:space="preserve">-516.3693</t>
@@ -2249,7 +1986,7 @@
     <t xml:space="preserve">    LR = 15.920,   p = 6.61e-05</t>
   </si>
   <si>
-    <t xml:space="preserve">statusSBS5+UV</t>
+    <t xml:space="preserve">statusCL SBS5+UV</t>
   </si>
   <si>
     <t xml:space="preserve">    z = -5.972,   p = 1</t>
@@ -2294,25 +2031,16 @@
     <t xml:space="preserve">p-value of interaction in this model: 0.485960845509606</t>
   </si>
   <si>
-    <t xml:space="preserve">Uterus_AdenoCa__SBS5+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS28*SBS5</t>
+    <t xml:space="preserve">Uterus_AdenoCa__CL SBS5+SBS28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5*SBS28</t>
   </si>
   <si>
     <t xml:space="preserve">-76.68406</t>
   </si>
   <si>
     <t xml:space="preserve">Uterus_AdenoCa__PolE+SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PolE*SBS28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-76.64558</t>
   </si>
 </sst>
 </file>
@@ -2659,7 +2387,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
@@ -2697,7 +2425,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0458609697948586</v>
+        <v>0.0458609697948587</v>
       </c>
       <c r="C6" t="n">
         <v>1.04692884610597</v>
@@ -2709,7 +2437,7 @@
         <v>3.32579760356675</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000881659236675184</v>
+        <v>0.000881659236675179</v>
       </c>
     </row>
     <row r="7">
@@ -2717,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.268336791763686</v>
+        <v>0.268336791763685</v>
       </c>
       <c r="C7" t="n">
         <v>1.30778751791763</v>
@@ -2726,10 +2454,10 @@
         <v>0.299582332016916</v>
       </c>
       <c r="E7" t="n">
-        <v>0.895702994088897</v>
+        <v>0.895702994088894</v>
       </c>
       <c r="F7" t="n">
-        <v>0.37041141088536</v>
+        <v>0.370411410885362</v>
       </c>
     </row>
     <row r="8">
@@ -2737,47 +2465,47 @@
         <v>83</v>
       </c>
       <c r="B8" t="n">
-        <v>2.47934315815163</v>
+        <v>1.01455351924796</v>
       </c>
       <c r="C8" t="n">
-        <v>11.9334234710698</v>
+        <v>2.75813166972329</v>
       </c>
       <c r="D8" t="n">
-        <v>0.752702504243096</v>
+        <v>0.488908427307736</v>
       </c>
       <c r="E8" t="n">
-        <v>3.2939217608221</v>
+        <v>2.07514017468422</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000987999950099011</v>
+        <v>0.037973545287495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="B9" t="n">
-        <v>1.01455351924796</v>
+        <v>2.47934315815163</v>
       </c>
       <c r="C9" t="n">
-        <v>2.75813166972328</v>
+        <v>11.9334234710699</v>
       </c>
       <c r="D9" t="n">
-        <v>0.488908427307736</v>
+        <v>0.752702504243096</v>
       </c>
       <c r="E9" t="n">
-        <v>2.07514017468422</v>
+        <v>3.29392176082211</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0379735452874952</v>
+        <v>0.000987999950099002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.77013128349402</v>
+        <v>-3.77013128349403</v>
       </c>
       <c r="C10" t="n">
         <v>0.0230490371304593</v>
@@ -2789,7 +2517,7 @@
         <v>-3.67099646011547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000241606686834136</v>
+        <v>0.000241606686834135</v>
       </c>
     </row>
     <row r="12">
@@ -2807,10 +2535,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35">
@@ -2857,7 +2585,7 @@
         <v>0.264815807930628</v>
       </c>
       <c r="E39" t="n">
-        <v>0.93800477245624</v>
+        <v>0.938004772456239</v>
       </c>
       <c r="F39" t="n">
         <v>0.348241957514504</v>
@@ -2868,59 +2596,59 @@
         <v>83</v>
       </c>
       <c r="B40" t="n">
-        <v>2.3840384817787</v>
+        <v>0.840391858261585</v>
       </c>
       <c r="C40" t="n">
-        <v>10.8486264963891</v>
+        <v>2.31727484218347</v>
       </c>
       <c r="D40" t="n">
-        <v>0.74903965611558</v>
+        <v>0.483713776953785</v>
       </c>
       <c r="E40" t="n">
-        <v>3.18279341062128</v>
+        <v>1.73737424547632</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00145861646027421</v>
+        <v>0.0823211341436769</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="B41" t="n">
-        <v>0.840391858261582</v>
+        <v>2.3840384817787</v>
       </c>
       <c r="C41" t="n">
-        <v>2.31727484218346</v>
+        <v>10.8486264963891</v>
       </c>
       <c r="D41" t="n">
-        <v>0.483713776953784</v>
+        <v>0.749039656115581</v>
       </c>
       <c r="E41" t="n">
-        <v>1.73737424547632</v>
+        <v>3.18279341062128</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0823211341436768</v>
+        <v>0.00145861646027421</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="B42" t="n">
         <v>-3.3571155154365</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0348355969050529</v>
+        <v>0.0348355969050528</v>
       </c>
       <c r="D42" t="n">
         <v>0.995995242696885</v>
       </c>
       <c r="E42" t="n">
-        <v>-3.37061400649499</v>
+        <v>-3.370614006495</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000750008650674819</v>
+        <v>0.000750008650674813</v>
       </c>
     </row>
     <row r="45">
@@ -2938,10 +2666,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="B47" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50">
@@ -2971,7 +2699,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56">
@@ -2991,7 +2719,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60">
@@ -3011,7 +2739,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68">
@@ -3049,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0456197207520566</v>
+        <v>0.0456197207520565</v>
       </c>
       <c r="C72" t="n">
         <v>1.04667630598772</v>
@@ -3058,10 +2786,10 @@
         <v>0.013681844680836</v>
       </c>
       <c r="E72" t="n">
-        <v>3.3343252913809</v>
+        <v>3.33432529138089</v>
       </c>
       <c r="F72" t="n">
-        <v>0.000855065967775714</v>
+        <v>0.000855065967775717</v>
       </c>
     </row>
     <row r="73">
@@ -3069,44 +2797,44 @@
         <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>2.56517150290476</v>
+        <v>1.0095734414741</v>
       </c>
       <c r="C73" t="n">
-        <v>13.0028882115515</v>
+        <v>2.74443010524376</v>
       </c>
       <c r="D73" t="n">
-        <v>0.746204203863903</v>
+        <v>0.489113422872151</v>
       </c>
       <c r="E73" t="n">
-        <v>3.43762671078788</v>
+        <v>2.06408860248758</v>
       </c>
       <c r="F73" t="n">
-        <v>0.000586836082496945</v>
+        <v>0.0390093164102481</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="B74" t="n">
-        <v>1.00957344147409</v>
+        <v>2.56517150290476</v>
       </c>
       <c r="C74" t="n">
-        <v>2.74443010524375</v>
+        <v>13.0028882115515</v>
       </c>
       <c r="D74" t="n">
-        <v>0.489113422872151</v>
+        <v>0.746204203863903</v>
       </c>
       <c r="E74" t="n">
-        <v>2.06408860248758</v>
+        <v>3.43762671078788</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0390093164102481</v>
+        <v>0.000586836082496942</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="B75" t="n">
         <v>-3.3034031082636</v>
@@ -3121,7 +2849,7 @@
         <v>-3.81182080475735</v>
       </c>
       <c r="F75" t="n">
-        <v>0.000137946870605394</v>
+        <v>0.000137946870605393</v>
       </c>
     </row>
     <row r="78">
@@ -3139,10 +2867,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83">
@@ -3172,7 +2900,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89">
@@ -3192,7 +2920,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93">
@@ -3212,7 +2940,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101">
@@ -3250,44 +2978,44 @@
         <v>83</v>
       </c>
       <c r="B105" t="n">
-        <v>2.46235656816635</v>
+        <v>0.826974868509004</v>
       </c>
       <c r="C105" t="n">
-        <v>11.7324272526236</v>
+        <v>2.28639163251276</v>
       </c>
       <c r="D105" t="n">
-        <v>0.744242055834057</v>
+        <v>0.483385542377642</v>
       </c>
       <c r="E105" t="n">
-        <v>3.30854262919452</v>
+        <v>1.71079768840694</v>
       </c>
       <c r="F105" t="n">
-        <v>0.000937829062343443</v>
+        <v>0.0871184664636731</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="B106" t="n">
-        <v>0.826974868509004</v>
+        <v>2.46235656816635</v>
       </c>
       <c r="C106" t="n">
-        <v>2.28639163251276</v>
+        <v>11.7324272526236</v>
       </c>
       <c r="D106" t="n">
-        <v>0.483385542377642</v>
+        <v>0.744242055834057</v>
       </c>
       <c r="E106" t="n">
-        <v>1.71079768840694</v>
+        <v>3.30854262919452</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0871184664636731</v>
+        <v>0.00093782906234345</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="B107" t="n">
         <v>-2.89622648268037</v>
@@ -3302,7 +3030,7 @@
         <v>-3.39999897503279</v>
       </c>
       <c r="F107" t="n">
-        <v>0.000673861057326641</v>
+        <v>0.000673861057326646</v>
       </c>
     </row>
     <row r="111">
@@ -3320,10 +3048,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="B113" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116">
@@ -3353,7 +3081,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
     </row>
     <row r="122">
@@ -3373,7 +3101,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126">
@@ -3393,7 +3121,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134">
@@ -3443,7 +3171,7 @@
         <v>3.32579760356675</v>
       </c>
       <c r="F138" t="n">
-        <v>0.000881659236675184</v>
+        <v>0.000881659236675178</v>
       </c>
     </row>
     <row r="139">
@@ -3468,47 +3196,47 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B140" t="n">
-        <v>2.47934315815163</v>
+        <v>1.01455351924796</v>
       </c>
       <c r="C140" t="n">
-        <v>11.9334234710699</v>
+        <v>2.75813166972329</v>
       </c>
       <c r="D140" t="n">
-        <v>0.752702504243096</v>
+        <v>0.488908427307736</v>
       </c>
       <c r="E140" t="n">
-        <v>3.29392176082211</v>
+        <v>2.07514017468422</v>
       </c>
       <c r="F140" t="n">
-        <v>0.000987999950099001</v>
+        <v>0.0379735452874949</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="B141" t="n">
-        <v>1.01455351924796</v>
+        <v>2.47934315815163</v>
       </c>
       <c r="C141" t="n">
-        <v>2.75813166972328</v>
+        <v>11.9334234710699</v>
       </c>
       <c r="D141" t="n">
-        <v>0.488908427307736</v>
+        <v>0.752702504243096</v>
       </c>
       <c r="E141" t="n">
-        <v>2.07514017468422</v>
+        <v>3.29392176082211</v>
       </c>
       <c r="F141" t="n">
-        <v>0.037973545287495</v>
+        <v>0.000987999950099002</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="B142" t="n">
         <v>-0.276234606094435</v>
@@ -3523,7 +3251,7 @@
         <v>-0.315849348475042</v>
       </c>
       <c r="F142" t="n">
-        <v>0.752116859267106</v>
+        <v>0.752116859267107</v>
       </c>
     </row>
     <row r="144">
@@ -3541,10 +3269,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="B146" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149">
@@ -3574,7 +3302,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
     </row>
     <row r="155">
@@ -3594,7 +3322,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159">
@@ -3604,7 +3332,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>285</v>
+        <v>341</v>
       </c>
     </row>
     <row r="161">
@@ -3614,7 +3342,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167">
@@ -3661,7 +3389,7 @@
         <v>0.264815807930628</v>
       </c>
       <c r="E171" t="n">
-        <v>0.938004772456239</v>
+        <v>0.93800477245624</v>
       </c>
       <c r="F171" t="n">
         <v>0.348241957514504</v>
@@ -3669,62 +3397,62 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B172" t="n">
-        <v>2.3840384817787</v>
+        <v>0.840391858261583</v>
       </c>
       <c r="C172" t="n">
-        <v>10.8486264963891</v>
+        <v>2.31727484218346</v>
       </c>
       <c r="D172" t="n">
-        <v>0.74903965611558</v>
+        <v>0.483713776953784</v>
       </c>
       <c r="E172" t="n">
-        <v>3.18279341062129</v>
+        <v>1.73737424547632</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0014586164602742</v>
+        <v>0.0823211341436769</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="B173" t="n">
-        <v>0.840391858261585</v>
+        <v>2.3840384817787</v>
       </c>
       <c r="C173" t="n">
-        <v>2.31727484218347</v>
+        <v>10.8486264963891</v>
       </c>
       <c r="D173" t="n">
-        <v>0.483713776953785</v>
+        <v>0.74903965611558</v>
       </c>
       <c r="E173" t="n">
-        <v>1.73737424547633</v>
+        <v>3.18279341062129</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0823211341436762</v>
+        <v>0.0014586164602742</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.132685175396214</v>
+        <v>-0.132685175396217</v>
       </c>
       <c r="C174" t="n">
-        <v>0.875740753449732</v>
+        <v>0.87574075344973</v>
       </c>
       <c r="D174" t="n">
-        <v>0.83170512966887</v>
+        <v>0.831705129668869</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.159533914921314</v>
+        <v>-0.159533914921317</v>
       </c>
       <c r="F174" t="n">
-        <v>0.873248240226706</v>
+        <v>0.873248240226703</v>
       </c>
     </row>
     <row r="177">
@@ -3742,10 +3470,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="B179" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
     </row>
     <row r="182">
@@ -3775,7 +3503,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>287</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188">
@@ -3795,7 +3523,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>288</v>
+        <v>344</v>
       </c>
     </row>
     <row r="192">
@@ -3805,7 +3533,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
     </row>
     <row r="194">
@@ -3815,7 +3543,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
     </row>
     <row r="200">
@@ -3865,55 +3593,55 @@
         <v>3.33432529138089</v>
       </c>
       <c r="F204" t="n">
-        <v>0.000855065967775716</v>
+        <v>0.000855065967775715</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B205" t="n">
-        <v>2.56517150290476</v>
+        <v>1.00957344147409</v>
       </c>
       <c r="C205" t="n">
-        <v>13.0028882115515</v>
+        <v>2.74443010524375</v>
       </c>
       <c r="D205" t="n">
-        <v>0.746204203863904</v>
+        <v>0.489113422872152</v>
       </c>
       <c r="E205" t="n">
-        <v>3.43762671078787</v>
+        <v>2.06408860248757</v>
       </c>
       <c r="F205" t="n">
-        <v>0.000586836082496959</v>
+        <v>0.0390093164102486</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="B206" t="n">
-        <v>1.00957344147409</v>
+        <v>2.56517150290476</v>
       </c>
       <c r="C206" t="n">
-        <v>2.74443010524375</v>
+        <v>13.0028882115515</v>
       </c>
       <c r="D206" t="n">
-        <v>0.489113422872152</v>
+        <v>0.746204203863904</v>
       </c>
       <c r="E206" t="n">
-        <v>2.06408860248757</v>
+        <v>3.43762671078788</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0390093164102489</v>
+        <v>0.000586836082496953</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="B207" t="n">
-        <v>0.27134183611525</v>
+        <v>0.271341836115251</v>
       </c>
       <c r="C207" t="n">
         <v>1.31172338818191</v>
@@ -3922,10 +3650,10 @@
         <v>0.587641873431006</v>
       </c>
       <c r="E207" t="n">
-        <v>0.461746938711146</v>
+        <v>0.461746938711148</v>
       </c>
       <c r="F207" t="n">
-        <v>0.644262806137636</v>
+        <v>0.644262806137635</v>
       </c>
     </row>
     <row r="210">
@@ -3943,10 +3671,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="B212" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
     </row>
     <row r="215">
@@ -3996,7 +3724,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
     </row>
     <row r="225">
@@ -4006,7 +3734,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227">
@@ -4016,7 +3744,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
     </row>
     <row r="233">
@@ -4051,62 +3779,62 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B237" t="n">
-        <v>2.46235656816634</v>
+        <v>0.826974868509005</v>
       </c>
       <c r="C237" t="n">
-        <v>11.7324272526236</v>
+        <v>2.28639163251276</v>
       </c>
       <c r="D237" t="n">
-        <v>0.744242055834056</v>
+        <v>0.483385542377644</v>
       </c>
       <c r="E237" t="n">
-        <v>3.30854262919452</v>
+        <v>1.71079768840693</v>
       </c>
       <c r="F237" t="n">
-        <v>0.000937829062343457</v>
+        <v>0.0871184664636741</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="B238" t="n">
-        <v>0.826974868509001</v>
+        <v>2.46235656816635</v>
       </c>
       <c r="C238" t="n">
-        <v>2.28639163251275</v>
+        <v>11.7324272526236</v>
       </c>
       <c r="D238" t="n">
-        <v>0.483385542377642</v>
+        <v>0.744242055834057</v>
       </c>
       <c r="E238" t="n">
-        <v>1.71079768840693</v>
+        <v>3.30854262919452</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0871184664636743</v>
+        <v>0.00093782906234345</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="B239" t="n">
-        <v>0.393104953994982</v>
+        <v>0.393104953994986</v>
       </c>
       <c r="C239" t="n">
-        <v>1.48157387826691</v>
+        <v>1.48157387826692</v>
       </c>
       <c r="D239" t="n">
-        <v>0.588422414459461</v>
+        <v>0.588422414459462</v>
       </c>
       <c r="E239" t="n">
-        <v>0.668065906965997</v>
+        <v>0.668065906966003</v>
       </c>
       <c r="F239" t="n">
-        <v>0.504091523169171</v>
+        <v>0.504091523169167</v>
       </c>
     </row>
     <row r="243">
@@ -4124,10 +3852,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="B245" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248">
@@ -4157,7 +3885,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
     </row>
     <row r="254">
@@ -4177,7 +3905,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
     </row>
     <row r="258">
@@ -4187,7 +3915,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
     </row>
     <row r="260">
@@ -4197,7 +3925,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
     </row>
     <row r="266">
@@ -4207,7 +3935,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4226,7 +3954,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>665</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2">
@@ -4301,7 +4029,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>666</v>
+        <v>486</v>
       </c>
       <c r="B8" t="n">
         <v>-14.9049280492172</v>
@@ -4321,7 +4049,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="B9" t="n">
         <v>0.528607391908918</v>
@@ -4341,7 +4069,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>667</v>
+        <v>487</v>
       </c>
       <c r="B10" t="n">
         <v>15.2600707259789</v>
@@ -4374,10 +4102,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B14" t="s">
-        <v>668</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35">
@@ -4432,7 +4160,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>666</v>
+        <v>486</v>
       </c>
       <c r="B40" t="n">
         <v>-14.8425250043407</v>
@@ -4452,7 +4180,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="B41" t="n">
         <v>0.421200776202496</v>
@@ -4472,7 +4200,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>667</v>
+        <v>487</v>
       </c>
       <c r="B42" t="n">
         <v>15.2632119936824</v>
@@ -4505,10 +4233,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B47" t="s">
-        <v>669</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50">
@@ -4538,7 +4266,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>670</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56">
@@ -4558,7 +4286,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>671</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60">
@@ -4578,7 +4306,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>672</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68">
@@ -4633,7 +4361,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>666</v>
+        <v>486</v>
       </c>
       <c r="B73" t="n">
         <v>-14.8879356867699</v>
@@ -4653,7 +4381,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="B74" t="n">
         <v>0.520340479201457</v>
@@ -4673,7 +4401,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>667</v>
+        <v>487</v>
       </c>
       <c r="B75" t="n">
         <v>15.2063054781144</v>
@@ -4706,10 +4434,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B80" t="s">
-        <v>673</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83">
@@ -4739,7 +4467,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>674</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89">
@@ -4759,7 +4487,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>675</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93">
@@ -4779,7 +4507,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>676</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101">
@@ -4814,7 +4542,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>666</v>
+        <v>486</v>
       </c>
       <c r="B105" t="n">
         <v>-14.848724118169</v>
@@ -4834,7 +4562,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="B106" t="n">
         <v>0.426586730941913</v>
@@ -4854,7 +4582,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>667</v>
+        <v>487</v>
       </c>
       <c r="B107" t="n">
         <v>15.2832826883166</v>
@@ -4887,10 +4615,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B113" t="s">
-        <v>677</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116">
@@ -4920,7 +4648,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>678</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122">
@@ -4940,7 +4668,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>679</v>
+        <v>500</v>
       </c>
     </row>
     <row r="126">
@@ -4960,7 +4688,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>680</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134">
@@ -5035,7 +4763,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>681</v>
+        <v>502</v>
       </c>
       <c r="B140" t="n">
         <v>-14.9049280777236</v>
@@ -5055,7 +4783,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="B141" t="n">
         <v>0.528607391908917</v>
@@ -5075,7 +4803,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>682</v>
+        <v>503</v>
       </c>
       <c r="B142" t="n">
         <v>0.883750068670631</v>
@@ -5090,7 +4818,7 @@
         <v>2.71512715972198</v>
       </c>
       <c r="F142" t="n">
-        <v>0.00662503271567505</v>
+        <v>0.00662503271567506</v>
       </c>
     </row>
     <row r="144">
@@ -5108,10 +4836,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B146" t="s">
-        <v>668</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149">
@@ -5141,7 +4869,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>683</v>
+        <v>504</v>
       </c>
     </row>
     <row r="155">
@@ -5161,7 +4889,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>684</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159">
@@ -5171,7 +4899,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>685</v>
+        <v>506</v>
       </c>
     </row>
     <row r="161">
@@ -5181,7 +4909,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>686</v>
+        <v>507</v>
       </c>
     </row>
     <row r="167">
@@ -5236,7 +4964,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>681</v>
+        <v>502</v>
       </c>
       <c r="B172" t="n">
         <v>-14.8425249789594</v>
@@ -5256,7 +4984,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="B173" t="n">
         <v>0.421200776202496</v>
@@ -5276,7 +5004,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>682</v>
+        <v>503</v>
       </c>
       <c r="B174" t="n">
         <v>0.84188776554423</v>
@@ -5309,10 +5037,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B179" t="s">
-        <v>669</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182">
@@ -5342,7 +5070,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
     </row>
     <row r="188">
@@ -5362,7 +5090,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>687</v>
+        <v>508</v>
       </c>
     </row>
     <row r="192">
@@ -5372,7 +5100,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>688</v>
+        <v>509</v>
       </c>
     </row>
     <row r="194">
@@ -5382,7 +5110,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>689</v>
+        <v>510</v>
       </c>
     </row>
     <row r="200">
@@ -5437,7 +5165,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>681</v>
+        <v>502</v>
       </c>
       <c r="B205" t="n">
         <v>-14.887935730722</v>
@@ -5457,7 +5185,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="B206" t="n">
         <v>0.520340479201457</v>
@@ -5477,7 +5205,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>682</v>
+        <v>503</v>
       </c>
       <c r="B207" t="n">
         <v>0.83871027054593</v>
@@ -5510,10 +5238,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B212" t="s">
-        <v>673</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215">
@@ -5543,7 +5271,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
     </row>
     <row r="221">
@@ -5563,7 +5291,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>690</v>
+        <v>511</v>
       </c>
     </row>
     <row r="225">
@@ -5573,7 +5301,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>691</v>
+        <v>512</v>
       </c>
     </row>
     <row r="227">
@@ -5583,7 +5311,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>692</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233">
@@ -5618,7 +5346,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>681</v>
+        <v>502</v>
       </c>
       <c r="B237" t="n">
         <v>-14.8487241010987</v>
@@ -5638,7 +5366,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="B238" t="n">
         <v>0.426586730941913</v>
@@ -5658,7 +5386,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>682</v>
+        <v>503</v>
       </c>
       <c r="B239" t="n">
         <v>0.861145301089588</v>
@@ -5691,15 +5419,15 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B245" t="s">
-        <v>677</v>
+        <v>498</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>693</v>
+        <v>514</v>
       </c>
     </row>
     <row r="249">
@@ -5724,7 +5452,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>694</v>
+        <v>515</v>
       </c>
     </row>
     <row r="254">
@@ -5744,7 +5472,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>679</v>
+        <v>500</v>
       </c>
     </row>
     <row r="258">
@@ -5764,17 +5492,17 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>680</v>
+        <v>501</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>695</v>
+        <v>516</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>696</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5793,7 +5521,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>697</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2">
@@ -5831,19 +5559,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0242082076173834</v>
+        <v>0.0258419631506758</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02450360514046</v>
+        <v>1.0261787615997</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00670084299967834</v>
+        <v>0.00661169442191517</v>
       </c>
       <c r="E6" t="n">
-        <v>3.61271076169752</v>
+        <v>3.90852351932961</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000303012638436288</v>
+        <v>0.0000928619083376924</v>
       </c>
     </row>
     <row r="7">
@@ -5851,79 +5579,79 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0699627051569417</v>
+        <v>-0.0427934166115102</v>
       </c>
       <c r="C7" t="n">
-        <v>1.07246818297579</v>
+        <v>0.958109299089518</v>
       </c>
       <c r="D7" t="n">
-        <v>0.116461635482227</v>
+        <v>0.118447831975288</v>
       </c>
       <c r="E7" t="n">
-        <v>0.600736069584207</v>
+        <v>-0.361284929389322</v>
       </c>
       <c r="F7" t="n">
-        <v>0.548015790863028</v>
+        <v>0.717886458585797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>486</v>
       </c>
       <c r="B8" t="n">
-        <v>1.92289726770664</v>
+        <v>-14.9049280492172</v>
       </c>
       <c r="C8" t="n">
-        <v>6.84074926776892</v>
+        <v>0.000000336412399808186</v>
       </c>
       <c r="D8" t="n">
-        <v>0.676734322576982</v>
+        <v>2756.68505027581</v>
       </c>
       <c r="E8" t="n">
-        <v>2.84143600162663</v>
+        <v>-0.00540683022448501</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00449108650854645</v>
+        <v>0.995685994660149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>698</v>
+        <v>385</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.291040311313018</v>
+        <v>0.528607391908918</v>
       </c>
       <c r="C9" t="n">
-        <v>0.747485545286958</v>
+        <v>1.69656800839328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.316531042136563</v>
+        <v>0.209711457284227</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.919468464604658</v>
+        <v>2.52064145065991</v>
       </c>
       <c r="F9" t="n">
-        <v>0.357850592977087</v>
+        <v>0.0117141146132913</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>699</v>
+        <v>487</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.09114932097217</v>
+        <v>15.2600707259789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.123545061258547</v>
+        <v>4239986.85080862</v>
       </c>
       <c r="D10" t="n">
-        <v>0.719556947580675</v>
+        <v>2756.68507304277</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.90616236561</v>
+        <v>0.00553565979487646</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00365891534236051</v>
+        <v>0.99558320507352</v>
       </c>
     </row>
     <row r="12">
@@ -5941,10 +5669,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B14" t="s">
-        <v>700</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35">
@@ -5982,79 +5710,79 @@
         <v>10</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154469015972304</v>
+        <v>0.0165713890004795</v>
       </c>
       <c r="C39" t="n">
-        <v>1.16703811795594</v>
+        <v>1.01670945606719</v>
       </c>
       <c r="D39" t="n">
-        <v>0.118622959640873</v>
+        <v>0.122616096289379</v>
       </c>
       <c r="E39" t="n">
-        <v>1.30218480840432</v>
+        <v>0.135148561257164</v>
       </c>
       <c r="F39" t="n">
-        <v>0.192853217090689</v>
+        <v>0.892494416017356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>486</v>
       </c>
       <c r="B40" t="n">
-        <v>2.3543990447973</v>
+        <v>-14.8425250043407</v>
       </c>
       <c r="C40" t="n">
-        <v>10.5317978208558</v>
+        <v>0.000000358074416674741</v>
       </c>
       <c r="D40" t="n">
-        <v>0.677030566279734</v>
+        <v>2679.4123153211</v>
       </c>
       <c r="E40" t="n">
-        <v>3.47753729604065</v>
+        <v>-0.00553947032320107</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000506042644310234</v>
+        <v>0.995580164758417</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>698</v>
+        <v>385</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.196820239673614</v>
+        <v>0.421200776202496</v>
       </c>
       <c r="C41" t="n">
-        <v>0.821338264077607</v>
+        <v>1.52379018850544</v>
       </c>
       <c r="D41" t="n">
-        <v>0.31602380120646</v>
+        <v>0.210201548261998</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.622801950113339</v>
+        <v>2.0037948325552</v>
       </c>
       <c r="F41" t="n">
-        <v>0.533414676675776</v>
+        <v>0.0450920426141501</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>699</v>
+        <v>487</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.47542064919025</v>
+        <v>15.2632119936824</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0841275946087074</v>
+        <v>4253326.7256559</v>
       </c>
       <c r="D42" t="n">
-        <v>0.719521462346436</v>
+        <v>2679.4123370883</v>
       </c>
       <c r="E42" t="n">
-        <v>-3.44037082801899</v>
+        <v>0.00569647746351309</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000580917656782153</v>
+        <v>0.995454893162258</v>
       </c>
     </row>
     <row r="45">
@@ -6072,10 +5800,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B47" t="s">
-        <v>701</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50">
@@ -6105,7 +5833,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>702</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56">
@@ -6125,7 +5853,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>703</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60">
@@ -6145,7 +5873,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>704</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68">
@@ -6183,79 +5911,79 @@
         <v>9</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0248379517304575</v>
+        <v>0.0256095723709175</v>
       </c>
       <c r="C72" t="n">
-        <v>1.02514898344489</v>
+        <v>1.02594031482461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0065964275960097</v>
+        <v>0.00659436741562958</v>
       </c>
       <c r="E72" t="n">
-        <v>3.7653641109443</v>
+        <v>3.88355254671117</v>
       </c>
       <c r="F72" t="n">
-        <v>0.000166306552409679</v>
+        <v>0.000102941272239821</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>486</v>
       </c>
       <c r="B73" t="n">
-        <v>1.77229272712102</v>
+        <v>-14.8879356867699</v>
       </c>
       <c r="C73" t="n">
-        <v>5.88432906826404</v>
+        <v>0.000000342177685427027</v>
       </c>
       <c r="D73" t="n">
-        <v>0.627145265190117</v>
+        <v>2763.73732677622</v>
       </c>
       <c r="E73" t="n">
-        <v>2.82596844063513</v>
+        <v>-0.00538688519438135</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00471379080234546</v>
+        <v>0.995701908259981</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>698</v>
+        <v>385</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.298477031351826</v>
+        <v>0.520340479201457</v>
       </c>
       <c r="C74" t="n">
-        <v>0.741947323181426</v>
+        <v>1.68260044263639</v>
       </c>
       <c r="D74" t="n">
-        <v>0.316131122896947</v>
+        <v>0.208572761014909</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.944155794015651</v>
+        <v>2.49476718181941</v>
       </c>
       <c r="F74" t="n">
-        <v>0.345090041291786</v>
+        <v>0.0126039797914435</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>699</v>
+        <v>487</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.97167508197541</v>
+        <v>15.2063054781144</v>
       </c>
       <c r="C75" t="n">
-        <v>0.13922345009063</v>
+        <v>4018042.80702514</v>
       </c>
       <c r="D75" t="n">
-        <v>0.690474572937361</v>
+        <v>2763.7373451996</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.85553611856794</v>
+        <v>0.00550208054485589</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00429642357260093</v>
+        <v>0.995609997030657</v>
       </c>
     </row>
     <row r="78">
@@ -6273,10 +6001,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B80" t="s">
-        <v>705</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83">
@@ -6306,7 +6034,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>706</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89">
@@ -6326,7 +6054,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>707</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93">
@@ -6346,7 +6074,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>708</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101">
@@ -6381,62 +6109,62 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>486</v>
       </c>
       <c r="B105" t="n">
-        <v>2.02386130271464</v>
+        <v>-14.848724118169</v>
       </c>
       <c r="C105" t="n">
-        <v>7.56748895751888</v>
+        <v>0.000000355861538634766</v>
       </c>
       <c r="D105" t="n">
-        <v>0.625329321747218</v>
+        <v>2679.7450310373</v>
       </c>
       <c r="E105" t="n">
-        <v>3.23647273897187</v>
+        <v>-0.0055410958677741</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00121016784866113</v>
+        <v>0.995578867781404</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>698</v>
+        <v>385</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.22026918920927</v>
+        <v>0.426586730941913</v>
       </c>
       <c r="C106" t="n">
-        <v>0.802302797635614</v>
+        <v>1.53201939466599</v>
       </c>
       <c r="D106" t="n">
-        <v>0.315568068376545</v>
+        <v>0.206458853589245</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.698008484643124</v>
+        <v>2.06620701183693</v>
       </c>
       <c r="F106" t="n">
-        <v>0.485171887941764</v>
+        <v>0.0388089370634007</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>699</v>
+        <v>487</v>
       </c>
       <c r="B107" t="n">
-        <v>-2.21815057171745</v>
+        <v>15.2832826883166</v>
       </c>
       <c r="C107" t="n">
-        <v>0.108810159439602</v>
+        <v>4339556.39759423</v>
       </c>
       <c r="D107" t="n">
-        <v>0.690155976148399</v>
+        <v>2679.74504921108</v>
       </c>
       <c r="E107" t="n">
-        <v>-3.21398444464168</v>
+        <v>0.00570325997721911</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0013090676489774</v>
+        <v>0.995449481587196</v>
       </c>
     </row>
     <row r="111">
@@ -6454,10 +6182,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B113" t="s">
-        <v>709</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116">
@@ -6487,7 +6215,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>710</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122">
@@ -6507,7 +6235,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>711</v>
+        <v>500</v>
       </c>
     </row>
     <row r="126">
@@ -6527,7 +6255,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>712</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134">
@@ -6565,19 +6293,19 @@
         <v>9</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0242082076173834</v>
+        <v>0.0258419631506758</v>
       </c>
       <c r="C138" t="n">
-        <v>1.02450360514046</v>
+        <v>1.0261787615997</v>
       </c>
       <c r="D138" t="n">
-        <v>0.00670084299967834</v>
+        <v>0.00661169442191517</v>
       </c>
       <c r="E138" t="n">
-        <v>3.61271076169752</v>
+        <v>3.90852351932961</v>
       </c>
       <c r="F138" t="n">
-        <v>0.000303012638436286</v>
+        <v>0.0000928619083376924</v>
       </c>
     </row>
     <row r="139">
@@ -6585,79 +6313,79 @@
         <v>10</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0699627051569417</v>
+        <v>-0.0427934166115103</v>
       </c>
       <c r="C139" t="n">
-        <v>1.07246818297579</v>
+        <v>0.958109299089518</v>
       </c>
       <c r="D139" t="n">
-        <v>0.116461635482227</v>
+        <v>0.118447831975288</v>
       </c>
       <c r="E139" t="n">
-        <v>0.600736069584207</v>
+        <v>-0.361284929389323</v>
       </c>
       <c r="F139" t="n">
-        <v>0.548015790863029</v>
+        <v>0.717886458585796</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>502</v>
       </c>
       <c r="B140" t="n">
-        <v>1.92289726770664</v>
+        <v>-14.9049280777236</v>
       </c>
       <c r="C140" t="n">
-        <v>6.84074926776891</v>
+        <v>0.00000033641239021828</v>
       </c>
       <c r="D140" t="n">
-        <v>0.676734322576979</v>
+        <v>2756.68505792883</v>
       </c>
       <c r="E140" t="n">
-        <v>2.84143600162664</v>
+        <v>-0.00540683021981557</v>
       </c>
       <c r="F140" t="n">
-        <v>0.00449108650854627</v>
+        <v>0.995685994663875</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>713</v>
+        <v>400</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.291040311313018</v>
+        <v>0.528607391908917</v>
       </c>
       <c r="C141" t="n">
-        <v>0.747485545286958</v>
+        <v>1.69656800839328</v>
       </c>
       <c r="D141" t="n">
-        <v>0.316531042136563</v>
+        <v>0.209711457284227</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.919468464604659</v>
+        <v>2.5206414506599</v>
       </c>
       <c r="F141" t="n">
-        <v>0.357850592977086</v>
+        <v>0.0117141146132914</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>714</v>
+        <v>503</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.459292364578541</v>
+        <v>0.883750068670631</v>
       </c>
       <c r="C142" t="n">
-        <v>0.63173052226974</v>
+        <v>2.41995771934428</v>
       </c>
       <c r="D142" t="n">
-        <v>0.239057080259841</v>
+        <v>0.325491226260329</v>
       </c>
       <c r="E142" t="n">
-        <v>-1.92126651960828</v>
+        <v>2.71512715972198</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0546981157566178</v>
+        <v>0.00662503271567506</v>
       </c>
     </row>
     <row r="144">
@@ -6675,10 +6403,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B146" t="s">
-        <v>700</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149">
@@ -6708,7 +6436,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>706</v>
+        <v>504</v>
       </c>
     </row>
     <row r="155">
@@ -6728,7 +6456,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>715</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159">
@@ -6738,7 +6466,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>716</v>
+        <v>506</v>
       </c>
     </row>
     <row r="161">
@@ -6748,7 +6476,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>717</v>
+        <v>507</v>
       </c>
     </row>
     <row r="167">
@@ -6786,79 +6514,79 @@
         <v>10</v>
       </c>
       <c r="B171" t="n">
-        <v>0.154469015972304</v>
+        <v>0.0165713890004796</v>
       </c>
       <c r="C171" t="n">
-        <v>1.16703811795594</v>
+        <v>1.01670945606719</v>
       </c>
       <c r="D171" t="n">
-        <v>0.118622959640873</v>
+        <v>0.122616096289379</v>
       </c>
       <c r="E171" t="n">
-        <v>1.30218480840432</v>
+        <v>0.135148561257165</v>
       </c>
       <c r="F171" t="n">
-        <v>0.19285321709069</v>
+        <v>0.892494416017355</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>48</v>
+        <v>502</v>
       </c>
       <c r="B172" t="n">
-        <v>2.3543990447973</v>
+        <v>-14.8425249789594</v>
       </c>
       <c r="C172" t="n">
-        <v>10.5317978208558</v>
+        <v>0.000000358074425763141</v>
       </c>
       <c r="D172" t="n">
-        <v>0.677030566279733</v>
+        <v>2679.41230483408</v>
       </c>
       <c r="E172" t="n">
-        <v>3.47753729604065</v>
+        <v>-0.00553947033540943</v>
       </c>
       <c r="F172" t="n">
-        <v>0.000506042644310237</v>
+        <v>0.995580164748676</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>713</v>
+        <v>400</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.196820239673616</v>
+        <v>0.421200776202496</v>
       </c>
       <c r="C173" t="n">
-        <v>0.821338264077606</v>
+        <v>1.52379018850544</v>
       </c>
       <c r="D173" t="n">
-        <v>0.31602380120646</v>
+        <v>0.210201548261998</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.622801950113345</v>
+        <v>2.00379483255521</v>
       </c>
       <c r="F173" t="n">
-        <v>0.533414676675772</v>
+        <v>0.04509204261415</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>714</v>
+        <v>503</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.317841844066564</v>
+        <v>0.84188776554423</v>
       </c>
       <c r="C174" t="n">
-        <v>0.72771787221312</v>
+        <v>2.32074386451677</v>
       </c>
       <c r="D174" t="n">
-        <v>0.239408779566374</v>
+        <v>0.331685871772965</v>
       </c>
       <c r="E174" t="n">
-        <v>-1.32761147958839</v>
+        <v>2.53820809745099</v>
       </c>
       <c r="F174" t="n">
-        <v>0.184306490214545</v>
+        <v>0.0111421709349538</v>
       </c>
     </row>
     <row r="177">
@@ -6876,10 +6604,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B179" t="s">
-        <v>701</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182">
@@ -6909,7 +6637,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>718</v>
+        <v>389</v>
       </c>
     </row>
     <row r="188">
@@ -6929,7 +6657,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>719</v>
+        <v>508</v>
       </c>
     </row>
     <row r="192">
@@ -6939,7 +6667,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>720</v>
+        <v>509</v>
       </c>
     </row>
     <row r="194">
@@ -6949,7 +6677,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>721</v>
+        <v>510</v>
       </c>
     </row>
     <row r="200">
@@ -6987,79 +6715,79 @@
         <v>9</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0248379517304575</v>
+        <v>0.0256095723709175</v>
       </c>
       <c r="C204" t="n">
-        <v>1.02514898344489</v>
+        <v>1.02594031482461</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0065964275960097</v>
+        <v>0.00659436741562958</v>
       </c>
       <c r="E204" t="n">
-        <v>3.76536411094431</v>
+        <v>3.88355254671117</v>
       </c>
       <c r="F204" t="n">
-        <v>0.000166306552409678</v>
+        <v>0.000102941272239822</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>48</v>
+        <v>502</v>
       </c>
       <c r="B205" t="n">
-        <v>1.77229272712101</v>
+        <v>-14.887935730722</v>
       </c>
       <c r="C205" t="n">
-        <v>5.88432906826403</v>
+        <v>0.000000342177670387599</v>
       </c>
       <c r="D205" t="n">
-        <v>0.627145265190114</v>
+        <v>2763.73736330231</v>
       </c>
       <c r="E205" t="n">
-        <v>2.82596844063513</v>
+        <v>-0.00538688513909037</v>
       </c>
       <c r="F205" t="n">
-        <v>0.00471379080234534</v>
+        <v>0.995701908304096</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>713</v>
+        <v>400</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.298477031351828</v>
+        <v>0.520340479201457</v>
       </c>
       <c r="C206" t="n">
-        <v>0.741947323181425</v>
+        <v>1.68260044263639</v>
       </c>
       <c r="D206" t="n">
-        <v>0.316131122896947</v>
+        <v>0.208572761014909</v>
       </c>
       <c r="E206" t="n">
-        <v>-0.944155794015656</v>
+        <v>2.49476718181941</v>
       </c>
       <c r="F206" t="n">
-        <v>0.345090041291784</v>
+        <v>0.0126039797914435</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>714</v>
+        <v>503</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.497859386206218</v>
+        <v>0.83871027054593</v>
       </c>
       <c r="C207" t="n">
-        <v>0.607830398231959</v>
+        <v>2.31338141576154</v>
       </c>
       <c r="D207" t="n">
-        <v>0.230240743669791</v>
+        <v>0.300129187099122</v>
       </c>
       <c r="E207" t="n">
-        <v>-2.16234267780269</v>
+        <v>2.79449752505722</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0305917724205344</v>
+        <v>0.00519804386598325</v>
       </c>
     </row>
     <row r="210">
@@ -7077,10 +6805,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B212" t="s">
-        <v>705</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215">
@@ -7110,7 +6838,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="221">
@@ -7130,7 +6858,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>722</v>
+        <v>511</v>
       </c>
     </row>
     <row r="225">
@@ -7140,7 +6868,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>723</v>
+        <v>512</v>
       </c>
     </row>
     <row r="227">
@@ -7150,7 +6878,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>724</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233">
@@ -7185,62 +6913,62 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>48</v>
+        <v>502</v>
       </c>
       <c r="B237" t="n">
-        <v>2.02386130271464</v>
+        <v>-14.8487241010987</v>
       </c>
       <c r="C237" t="n">
-        <v>7.56748895751892</v>
+        <v>0.0000003558615447094</v>
       </c>
       <c r="D237" t="n">
-        <v>0.625329321747219</v>
+        <v>2679.74498261063</v>
       </c>
       <c r="E237" t="n">
-        <v>3.23647273897187</v>
+        <v>-0.00554109596153922</v>
       </c>
       <c r="F237" t="n">
-        <v>0.00121016784866111</v>
+        <v>0.995578867706592</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>713</v>
+        <v>400</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.220269189209272</v>
+        <v>0.426586730941913</v>
       </c>
       <c r="C238" t="n">
-        <v>0.802302797635612</v>
+        <v>1.53201939466599</v>
       </c>
       <c r="D238" t="n">
-        <v>0.315568068376545</v>
+        <v>0.206458853589245</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.698008484643131</v>
+        <v>2.06620701183693</v>
       </c>
       <c r="F238" t="n">
-        <v>0.485171887941761</v>
+        <v>0.0388089370634007</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>714</v>
+        <v>503</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.414558458212081</v>
+        <v>0.861145301089588</v>
       </c>
       <c r="C239" t="n">
-        <v>0.660631912912325</v>
+        <v>2.36586877471121</v>
       </c>
       <c r="D239" t="n">
-        <v>0.22847822688965</v>
+        <v>0.299748117581935</v>
       </c>
       <c r="E239" t="n">
-        <v>-1.81443310312585</v>
+        <v>2.87289644397582</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0696110731901955</v>
+        <v>0.00406727412845909</v>
       </c>
     </row>
     <row r="243">
@@ -7258,10 +6986,1577 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="B245" t="s">
-        <v>709</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0242082076173834</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.02450360514046</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00670084299967834</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.61271076169752</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000303012638436288</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0699627051569417</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.07246818297579</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.116461635482227</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.600736069584207</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.548015790863028</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.92289726770664</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.84074926776892</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.676734322576982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.84143600162663</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00449108650854645</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.291040311313018</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.747485545286958</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.316531042136563</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.919468464604658</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.357850592977087</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.09114932097217</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.123545061258547</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.719556947580675</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.90616236561</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00365891534236051</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.154469015972304</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.16703811795594</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.118622959640873</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.30218480840432</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.192853217090689</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2.3543990447973</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10.5317978208558</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.677030566279734</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.47753729604065</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.000506042644310234</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>610</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.196820239673614</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.821338264077607</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.31602380120646</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.622801950113339</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.533414676675776</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>611</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-2.47542064919025</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0841275946087074</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.719521462346436</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-3.44037082801899</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.000580917656782153</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>488</v>
+      </c>
+      <c r="B47" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0248379517304575</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.02514898344489</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0065964275960097</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.7653641109443</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.000166306552409679</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.77229272712102</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5.88432906826404</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.627145265190117</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.82596844063513</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.00471379080234546</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>610</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-0.298477031351826</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.741947323181426</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.316131122896947</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.944155794015651</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.345090041291786</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>611</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-1.97167508197541</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.13922345009063</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.690474572937361</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.85553611856794</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.00429642357260093</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>488</v>
+      </c>
+      <c r="B80" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2.02386130271464</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.56748895751888</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.625329321747218</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.23647273897187</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.00121016784866113</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>610</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.22026918920927</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.802302797635614</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.315568068376545</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-0.698008484643124</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.485171887941764</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>611</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-2.21815057171745</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.108810159439602</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.690155976148399</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-3.21398444464168</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0013090676489774</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>488</v>
+      </c>
+      <c r="B113" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.0242082076173834</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.02450360514046</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.00670084299967834</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.61271076169752</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.000303012638436286</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.0699627051569417</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.07246818297579</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.116461635482227</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.600736069584207</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.548015790863029</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.92289726770664</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.84074926776891</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.676734322576979</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.84143600162664</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.00449108650854627</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>625</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-0.291040311313018</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.747485545286958</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.316531042136563</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-0.919468464604659</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.357850592977086</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>626</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-0.459292364578541</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.63173052226974</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.239057080259841</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-1.92126651960828</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0546981157566178</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>488</v>
+      </c>
+      <c r="B146" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.154469015972304</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.16703811795594</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.118622959640873</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.30218480840432</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.19285321709069</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>49</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2.3543990447973</v>
+      </c>
+      <c r="C172" t="n">
+        <v>10.5317978208558</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.677030566279733</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3.47753729604065</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.000506042644310237</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>625</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.196820239673616</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.821338264077606</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.31602380120646</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-0.622801950113345</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.533414676675772</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>626</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.317841844066564</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.72771787221312</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.239408779566374</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-1.32761147958839</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.184306490214545</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>488</v>
+      </c>
+      <c r="B179" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.0248379517304575</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.02514898344489</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.0065964275960097</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3.76536411094431</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.000166306552409678</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>49</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.77229272712101</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.88432906826403</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.627145265190114</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2.82596844063513</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.00471379080234534</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>625</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.298477031351828</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.741947323181425</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.316131122896947</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-0.944155794015656</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.345090041291784</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>626</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.497859386206218</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.607830398231959</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.230240743669791</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-2.16234267780269</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.0305917724205344</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>488</v>
+      </c>
+      <c r="B212" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" t="s">
+        <v>7</v>
+      </c>
+      <c r="F236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>49</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2.02386130271464</v>
+      </c>
+      <c r="C237" t="n">
+        <v>7.56748895751892</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.625329321747219</v>
+      </c>
+      <c r="E237" t="n">
+        <v>3.23647273897187</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.00121016784866111</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>625</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-0.220269189209272</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.802302797635612</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.315568068376545</v>
+      </c>
+      <c r="E238" t="n">
+        <v>-0.698008484643131</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.485171887941761</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>626</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-0.414558458212081</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.660631912912325</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.22847822688965</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-1.81443310312585</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.0696110731901955</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="248">
@@ -7291,7 +8586,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>710</v>
+        <v>622</v>
       </c>
     </row>
     <row r="254">
@@ -7311,7 +8606,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>725</v>
+        <v>637</v>
       </c>
     </row>
     <row r="258">
@@ -7321,7 +8616,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>726</v>
+        <v>638</v>
       </c>
     </row>
     <row r="260">
@@ -7331,7 +8626,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>727</v>
+        <v>639</v>
       </c>
     </row>
     <row r="266">
@@ -7341,7 +8636,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>728</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
